--- a/form_templates/236.xlsx
+++ b/form_templates/236.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svenf\Desktop\beer\form_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD835D7-CBFE-4A6C-AFD5-90D37ECB7491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951BC2F7-A6D7-4397-AB6F-7887B1E2A3B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6840" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Page" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="95">
   <si>
     <t>TRADE NAME:</t>
   </si>
@@ -795,9 +795,6 @@
   </si>
   <si>
     <t>November, 2020</t>
-  </si>
-  <si>
-    <t>Local Motive IPA</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -2078,7 +2075,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2303,7 +2300,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2320,163 +2316,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2491,9 +2330,166 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -2984,8 +2980,8 @@
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:C43"/>
+    <sheetView view="pageLayout" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3001,28 +2997,28 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="146"/>
+      <c r="B2" s="161"/>
       <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="148"/>
+      <c r="B3" s="163"/>
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="127" t="s">
         <v>93</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -3037,16 +3033,16 @@
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="143"/>
-      <c r="C6" s="143"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="158"/>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="144"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
     </row>
     <row r="8" spans="1:3" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -3079,16 +3075,16 @@
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
-      <c r="B11" s="149" t="s">
+      <c r="B11" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="150"/>
+      <c r="C11" s="165"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="152"/>
+      <c r="C12" s="167"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -3105,8 +3101,8 @@
       <c r="A14" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="197" t="s">
-        <v>95</v>
+      <c r="B14" s="139" t="s">
+        <v>94</v>
       </c>
       <c r="C14" s="117"/>
     </row>
@@ -3114,51 +3110,48 @@
       <c r="A15" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="197" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="200" t="s">
-        <v>95</v>
+      <c r="B15" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="142" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="197" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="200" t="s">
-        <v>95</v>
+      <c r="B16" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="142" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="197" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="203" t="s">
-        <v>95</v>
+      <c r="B17" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="145" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="41" t="e">
-        <f>B14+B15+B16+B17</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="B18" s="41"/>
       <c r="C18" s="118"/>
     </row>
     <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="199" t="s">
-        <v>95</v>
+      <c r="B19" s="141" t="s">
+        <v>94</v>
       </c>
       <c r="C19" s="119"/>
     </row>
@@ -3166,203 +3159,196 @@
       <c r="A20" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="198" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="201" t="s">
-        <v>95</v>
+      <c r="B20" s="140" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="143" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="98" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="197" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="202" t="s">
-        <v>95</v>
+      <c r="B21" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="144" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="196" t="s">
-        <v>95</v>
+      <c r="B22" s="138" t="s">
+        <v>94</v>
       </c>
       <c r="C22" s="120"/>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="125" t="s">
+      <c r="A23" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="42" t="e">
-        <f>B18-B22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C23" s="194" t="s">
-        <v>95</v>
+      <c r="B23" s="42"/>
+      <c r="C23" s="136" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="153">
+      <c r="B24" s="146">
         <v>0.19800000000000001</v>
       </c>
-      <c r="C24" s="154"/>
+      <c r="C24" s="147"/>
     </row>
     <row r="25" spans="1:3" s="105" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="126" t="s">
+      <c r="A25" s="125" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="122"/>
       <c r="C25" s="122"/>
     </row>
     <row r="26" spans="1:3" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="131" t="s">
+      <c r="A26" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="190" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="193" t="s">
-        <v>95</v>
+      <c r="B26" s="132" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="135" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:3" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="129" t="s">
+      <c r="A27" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="191" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="194" t="s">
-        <v>95</v>
+      <c r="B27" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="136" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="40" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="192" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="195" t="s">
-        <v>95</v>
+      <c r="B28" s="134" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="137" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="40" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="124">
-        <f>SUM(B26:B28)</f>
-        <v>0</v>
+      <c r="B29" s="134" t="s">
+        <v>94</v>
       </c>
       <c r="C29" s="118"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="138" t="s">
+      <c r="A30" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="139"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
+      <c r="A31" s="173"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="155" t="e">
-        <f>B10 *B11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C32" s="156"/>
+      <c r="B32" s="148" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="149"/>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="204" t="e">
-        <f>B32*0.02</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C33" s="156"/>
+      <c r="B33" s="151" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="149"/>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="161">
-        <v>0</v>
-      </c>
-      <c r="C34" s="162"/>
+      <c r="B34" s="156" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="157"/>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="159" t="e">
-        <f>B32-B33-B34</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C35" s="160"/>
+      <c r="B35" s="154" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="155"/>
     </row>
     <row r="36" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="157"/>
-      <c r="B36" s="157"/>
-      <c r="C36" s="157"/>
+      <c r="A36" s="152"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="152"/>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="158"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="158"/>
+      <c r="A37" s="153"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="153"/>
     </row>
     <row r="38" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="136" t="s">
+      <c r="A38" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="136"/>
-      <c r="C38" s="136"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="150"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="136"/>
-      <c r="B39" s="136"/>
-      <c r="C39" s="136"/>
+      <c r="A39" s="150"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="150"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="140" t="s">
+      <c r="A40" s="174" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="133" t="s">
+      <c r="B40" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="135">
+      <c r="C40" s="170">
         <f ca="1">TODAY()</f>
-        <v>44193</v>
+        <v>44198</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="141"/>
-      <c r="B41" s="133"/>
-      <c r="C41" s="133"/>
+      <c r="A41" s="175"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="141"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
+      <c r="A42" s="175"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="142"/>
-      <c r="B43" s="134"/>
-      <c r="C43" s="134"/>
+      <c r="A43" s="176"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="169"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -3376,44 +3362,55 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="137"/>
-      <c r="B45" s="137"/>
-      <c r="C45" s="137"/>
+      <c r="A45" s="171"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="171"/>
     </row>
     <row r="46" spans="1:3" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="136" t="s">
+      <c r="A46" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="136"/>
-      <c r="C46" s="136"/>
+      <c r="B46" s="150"/>
+      <c r="C46" s="150"/>
     </row>
     <row r="47" spans="1:3" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A47" s="136"/>
-      <c r="B47" s="136"/>
-      <c r="C47" s="136"/>
+      <c r="A47" s="150"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="150"/>
     </row>
     <row r="48" spans="1:3" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A48" s="136"/>
-      <c r="B48" s="136"/>
-      <c r="C48" s="136"/>
+      <c r="A48" s="150"/>
+      <c r="B48" s="150"/>
+      <c r="C48" s="150"/>
     </row>
     <row r="49" spans="1:3" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A49" s="136"/>
-      <c r="B49" s="136"/>
-      <c r="C49" s="136"/>
+      <c r="A49" s="150"/>
+      <c r="B49" s="150"/>
+      <c r="C49" s="150"/>
     </row>
     <row r="50" spans="1:3" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A50" s="136"/>
-      <c r="B50" s="136"/>
-      <c r="C50" s="136"/>
+      <c r="A50" s="150"/>
+      <c r="B50" s="150"/>
+      <c r="C50" s="150"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="136"/>
-      <c r="B51" s="136"/>
-      <c r="C51" s="136"/>
+      <c r="A51" s="150"/>
+      <c r="B51" s="150"/>
+      <c r="C51" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="A46:C51"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A38:C39"/>
@@ -3421,17 +3418,6 @@
     <mergeCell ref="A36:C37"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="A46:C51"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="A40:A43"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
@@ -3454,7 +3440,7 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" view="pageLayout" topLeftCell="A19" colorId="22" zoomScale="70" zoomScaleNormal="50" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageLayout" colorId="22" zoomScale="70" zoomScaleNormal="50" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:F13"/>
     </sheetView>
   </sheetViews>
@@ -3788,13 +3774,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
@@ -3878,12 +3864,12 @@
       <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="167"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
+      <c r="B10" s="181"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
       <c r="E10" s="17"/>
       <c r="F10" s="91"/>
     </row>
@@ -3896,24 +3882,24 @@
       <c r="F11" s="63"/>
     </row>
     <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="168" t="s">
+      <c r="A12" s="182" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="168"/>
-      <c r="C12" s="168"/>
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
       <c r="D12" s="50"/>
       <c r="E12" s="51"/>
       <c r="F12" s="52"/>
     </row>
     <row r="13" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="183" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
     </row>
     <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
@@ -3988,24 +3974,24 @@
       <c r="F19" s="100"/>
     </row>
     <row r="20" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="172" t="s">
+      <c r="A20" s="186" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="173"/>
-      <c r="C20" s="173"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="187"/>
       <c r="D20" s="99"/>
       <c r="E20" s="102"/>
       <c r="F20" s="101"/>
     </row>
     <row r="21" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="170" t="s">
+      <c r="A21" s="184" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="170"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="169"/>
+      <c r="B21" s="184"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="183"/>
     </row>
     <row r="22" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="58"/>
@@ -4016,14 +4002,14 @@
       <c r="F22" s="57"/>
     </row>
     <row r="23" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="170" t="s">
+      <c r="A23" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
     </row>
     <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53"/>
@@ -4034,14 +4020,14 @@
       <c r="F24" s="57"/>
     </row>
     <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="170" t="s">
+      <c r="A25" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
+      <c r="B25" s="184"/>
+      <c r="C25" s="184"/>
+      <c r="D25" s="184"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184"/>
     </row>
     <row r="26" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
@@ -4052,25 +4038,25 @@
       <c r="F26" s="57"/>
     </row>
     <row r="27" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="166" t="s">
+      <c r="A27" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="171"/>
+      <c r="B27" s="181"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="185"/>
       <c r="E27" s="17"/>
       <c r="F27" s="60"/>
     </row>
     <row r="28" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="163" t="s">
+      <c r="A29" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="163"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
+      <c r="B29" s="177"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="50"/>
@@ -4080,12 +4066,12 @@
       <c r="E30" s="50"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="164"/>
-      <c r="B31" s="164"/>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
+      <c r="A31" s="178"/>
+      <c r="B31" s="178"/>
+      <c r="C31" s="178"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4116,7 +4102,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:M8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4125,63 +4111,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L1" s="181" t="s">
+      <c r="L1" s="190" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="182"/>
+      <c r="M1" s="191"/>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="184" t="s">
+      <c r="A3" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="184"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="184"/>
-      <c r="J3" s="184"/>
-      <c r="K3" s="184"/>
-      <c r="L3" s="184"/>
-      <c r="M3" s="184"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="185" t="s">
+      <c r="B4" s="194" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="186"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="187"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="196"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
@@ -4209,20 +4195,16 @@
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
-      <c r="L5" s="179" t="s">
+      <c r="L5" s="200" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="180"/>
+      <c r="M5" s="201"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="132" t="s">
-        <v>94</v>
-      </c>
+      <c r="A6" s="131"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
-      <c r="D6" s="18">
-        <v>10</v>
-      </c>
+      <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -4230,10 +4212,8 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="178">
-        <v>51.6</v>
-      </c>
-      <c r="M6" s="177"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="189"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
@@ -4247,8 +4227,8 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="178"/>
-      <c r="M7" s="177"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="189"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
@@ -4262,8 +4242,8 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="178"/>
-      <c r="M8" s="177"/>
+      <c r="L8" s="188"/>
+      <c r="M8" s="189"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
@@ -4277,8 +4257,8 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="177"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="189"/>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
@@ -4292,8 +4272,8 @@
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="177"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="189"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
@@ -4307,8 +4287,8 @@
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="178"/>
-      <c r="M11" s="177"/>
+      <c r="L11" s="188"/>
+      <c r="M11" s="189"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
@@ -4322,8 +4302,8 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="178"/>
-      <c r="M12" s="177"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="189"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
@@ -4337,8 +4317,8 @@
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="178"/>
-      <c r="M13" s="177"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="189"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
@@ -4352,8 +4332,8 @@
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="178"/>
-      <c r="M14" s="177"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="189"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
@@ -4367,8 +4347,8 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="178"/>
-      <c r="M15" s="177"/>
+      <c r="L15" s="188"/>
+      <c r="M15" s="189"/>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
@@ -4382,8 +4362,8 @@
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="178"/>
-      <c r="M16" s="177"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="189"/>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
@@ -4397,8 +4377,8 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="178"/>
-      <c r="M17" s="177"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="189"/>
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
@@ -4412,8 +4392,8 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="178"/>
-      <c r="M18" s="177"/>
+      <c r="L18" s="188"/>
+      <c r="M18" s="189"/>
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
@@ -4427,8 +4407,8 @@
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="178"/>
-      <c r="M19" s="177"/>
+      <c r="L19" s="188"/>
+      <c r="M19" s="189"/>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
@@ -4442,8 +4422,8 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="178"/>
-      <c r="M20" s="177"/>
+      <c r="L20" s="188"/>
+      <c r="M20" s="189"/>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
@@ -4457,8 +4437,8 @@
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="178"/>
-      <c r="M21" s="177"/>
+      <c r="L21" s="188"/>
+      <c r="M21" s="189"/>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
@@ -4472,8 +4452,8 @@
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
-      <c r="L22" s="178"/>
-      <c r="M22" s="177"/>
+      <c r="L22" s="188"/>
+      <c r="M22" s="189"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -4487,8 +4467,8 @@
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="177"/>
+      <c r="L23" s="188"/>
+      <c r="M23" s="189"/>
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
@@ -4502,8 +4482,8 @@
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="177"/>
+      <c r="L24" s="188"/>
+      <c r="M24" s="189"/>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
@@ -4517,8 +4497,8 @@
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
-      <c r="L25" s="178"/>
-      <c r="M25" s="177"/>
+      <c r="L25" s="188"/>
+      <c r="M25" s="189"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
@@ -4532,8 +4512,8 @@
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
-      <c r="L26" s="178"/>
-      <c r="M26" s="177"/>
+      <c r="L26" s="188"/>
+      <c r="M26" s="189"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
@@ -4547,8 +4527,8 @@
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
-      <c r="L27" s="178"/>
-      <c r="M27" s="177"/>
+      <c r="L27" s="188"/>
+      <c r="M27" s="189"/>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
@@ -4562,8 +4542,8 @@
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
-      <c r="L28" s="178"/>
-      <c r="M28" s="177"/>
+      <c r="L28" s="188"/>
+      <c r="M28" s="189"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
@@ -4577,8 +4557,8 @@
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
-      <c r="L29" s="178"/>
-      <c r="M29" s="177"/>
+      <c r="L29" s="188"/>
+      <c r="M29" s="189"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
@@ -4592,28 +4572,25 @@
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="177"/>
+      <c r="L30" s="188"/>
+      <c r="M30" s="189"/>
     </row>
     <row r="31" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="174" t="s">
+      <c r="A31" s="197" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="175"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="175"/>
+      <c r="B31" s="198"/>
+      <c r="C31" s="198"/>
+      <c r="D31" s="198"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="198"/>
+      <c r="G31" s="198"/>
+      <c r="H31" s="198"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="198"/>
       <c r="K31" s="93"/>
-      <c r="L31" s="176">
-        <f>SUM(L6:M29)</f>
-        <v>51.6</v>
-      </c>
-      <c r="M31" s="177"/>
+      <c r="L31" s="199"/>
+      <c r="M31" s="189"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="97" t="s">
@@ -4623,22 +4600,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L25:M25"/>
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="L17:M17"/>
@@ -4655,6 +4616,22 @@
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="B4:M4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4689,16 +4666,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="189"/>
+      <c r="B2" s="203"/>
       <c r="C2" s="85"/>
       <c r="D2" s="68"/>
-      <c r="E2" s="133" t="s">
+      <c r="E2" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="133"/>
+      <c r="F2" s="168"/>
       <c r="G2" s="78" t="s">
         <v>38</v>
       </c>
